--- a/tests/sample_tests_data/station/station.xlsx
+++ b/tests/sample_tests_data/station/station.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SEML\GITHUB DEPLOY\auto-moment-magnitude-calc\catalog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SEML\GITHUB DEPLOY\LQTMomentMag\tests\sample_tests_data\station\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF4CF74-E41F-4509-BD1D-C0E0675CA643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613A55C8-2882-44FE-8E5F-1AA43D79C56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,18 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
-    <t>Stations</t>
-  </si>
-  <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>Elev</t>
-  </si>
-  <si>
-    <t>Lon</t>
-  </si>
-  <si>
     <t>KJ01</t>
   </si>
   <si>
@@ -82,6 +70,18 @@
   </si>
   <si>
     <t>KJ15</t>
+  </si>
+  <si>
+    <t>station_code</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>elev</t>
   </si>
 </sst>
 </file>
@@ -89,7 +89,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -131,7 +131,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,21 +426,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>38.125222999999998</v>
@@ -452,12 +452,12 @@
         <v>1120</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>38.097281000000002</v>
@@ -469,12 +469,12 @@
         <v>1496</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>38.110387000000003</v>
@@ -486,12 +486,12 @@
         <v>1335</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>38.096023000000002</v>
@@ -503,12 +503,12 @@
         <v>1571</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>38.121307999999999</v>
@@ -520,12 +520,12 @@
         <v>1150</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>38.095081999999998</v>
@@ -537,12 +537,12 @@
         <v>1396</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>38.128070000000001</v>
@@ -554,12 +554,12 @@
         <v>1112</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>38.122469000000002</v>
@@ -571,12 +571,12 @@
         <v>1151</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>38.111801999999997</v>
@@ -588,12 +588,12 @@
         <v>1270</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>38.114910000000002</v>
@@ -605,12 +605,12 @@
         <v>1220</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>38.107481999999997</v>
@@ -622,12 +622,12 @@
         <v>1312</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>38.133125999999997</v>
@@ -639,12 +639,12 @@
         <v>989</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>38.116643000000003</v>
@@ -656,12 +656,12 @@
         <v>1222</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>38.102953999999997</v>
@@ -673,12 +673,12 @@
         <v>1398</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>38.133141000000002</v>
@@ -690,7 +690,7 @@
         <v>953</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
